--- a/teacher_timetables/Tomasz SKWERES_CampA_timetable.xlsx
+++ b/teacher_timetables/Tomasz SKWERES_CampA_timetable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/teacher_timetables/Tomasz SKWERES_CampA_timetable.xlsx
+++ b/teacher_timetables/Tomasz SKWERES_CampA_timetable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Cello Regulation &amp; Maintance Class
+          <t>Cello Regulation / Maintance Workshop
 (Room 201)</t>
         </is>
       </c>
@@ -577,7 +577,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Henry SUN Lesson with Tomasz SKWERES &amp; pianist</t>
+          <t>Henry SUN Private Lesson with Tomasz SKWERES &amp; pianist</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>Yauyau NG  Lesson with Tomasz SKWERES &amp; pianist</t>
+          <t>Yauyau NG Private Lesson with Tomasz SKWERES &amp; pianist</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Peter CHAN Lesson with Tomasz SKWERES &amp; pianist</t>
+          <t>Peter CHAN Private Lesson with Tomasz SKWERES &amp; pianist</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>Icelyn GE  Lesson with Tomasz SKWERES &amp; pianist</t>
+          <t>Icelyn GE Private Lesson with Tomasz SKWERES &amp; pianist</t>
         </is>
       </c>
       <c r="F11" s="1" t="n"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>Max TAM Lesson with Tomasz SKWERES &amp; pianist</t>
+          <t>Max TAM Private Lesson with Tomasz SKWERES &amp; pianist</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>Ivy YUE  Lesson with Tomasz SKWERES &amp; pianist</t>
+          <t>Ivy YUE Private Lesson with Tomasz SKWERES &amp; pianist</t>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">

--- a/teacher_timetables/Tomasz SKWERES_CampA_timetable.xlsx
+++ b/teacher_timetables/Tomasz SKWERES_CampA_timetable.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Cello Regulation / Maintance Workshop
+          <t>Cello Regulation / Maintenance Workshop
 (Room 201)</t>
         </is>
       </c>
